--- a/AHP/HHRQT_V2.xlsx
+++ b/AHP/HHRQT_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d9242a3c9fb5b61/Tài liệu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\pjr\AHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F53877A0-4906-402A-9246-DD17C7156680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27BD54F-B468-4D51-8581-65A3FA9B28FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195A73E-8C1D-4315-81D8-66B650DD2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{EE5068A2-DCFC-46A7-BC76-458F73BDD25C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE5068A2-DCFC-46A7-BC76-458F73BDD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$180:$D$188</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="79">
-  <si>
-    <t>Đề tài: Lựa chọn BDS tại TPHCM.</t>
-  </si>
   <si>
     <t>Mục tiêu:</t>
   </si>
@@ -54,9 +51,6 @@
     <t>H1</t>
   </si>
   <si>
-    <t>Phường 5, Quận 3</t>
-  </si>
-  <si>
     <t>1.320.000.000</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>Phường 3, Quận 3</t>
-  </si>
-  <si>
     <t>1.460.000.000</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
   </si>
   <si>
     <t>H3</t>
-  </si>
-  <si>
-    <t>Phường 7, Quận 3</t>
   </si>
   <si>
     <t>1.555.000.000</t>
@@ -96,9 +84,6 @@
     <t>H4</t>
   </si>
   <si>
-    <t>Phường Bến Thành, Quận 1</t>
-  </si>
-  <si>
     <t>1.599.000.000</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
   </si>
   <si>
     <t>H5</t>
-  </si>
-  <si>
-    <t>Phường Bến Nghé, Quận 1</t>
   </si>
   <si>
     <t>1.470.000.000</t>
@@ -126,9 +108,6 @@
     <t>H6</t>
   </si>
   <si>
-    <t>Phường Cầu Kho, Quận 1</t>
-  </si>
-  <si>
     <t>1.500.000.000</t>
   </si>
   <si>
@@ -138,9 +117,6 @@
     <t>H7</t>
   </si>
   <si>
-    <t>Phường 1, Quận 5</t>
-  </si>
-  <si>
     <t>1.440.000.000</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
   </si>
   <si>
     <t>H8</t>
-  </si>
-  <si>
-    <t>Phường 6, Quận 5</t>
   </si>
   <si>
     <t>1.307.000.000</t>
@@ -163,9 +136,6 @@
   </si>
   <si>
     <t>H9</t>
-  </si>
-  <si>
-    <t>Phường 3, Quận 5</t>
   </si>
   <si>
     <t>1.399.000.000</t>
@@ -244,29 +214,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vị trí: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quận 3, Quận 5, Quận 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Giá: </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -282,7 +236,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -298,7 +252,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -314,7 +268,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -331,6 +285,52 @@
   <si>
     <t>Consistency Rate</t>
   </si>
+  <si>
+    <t>Đề tài: Lựa chọn BDS tại HN.</t>
+  </si>
+  <si>
+    <t>Phường Thanh Xuân</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vị trí: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phường Thanh Xuân, Phường Ba Đình, Phường Đống Đa</t>
+    </r>
+  </si>
+  <si>
+    <t>Phố Vũ Trọng Phụng, Phường Thanh Xuân</t>
+  </si>
+  <si>
+    <t>Phố Kim Mã, Phường Ba Đình</t>
+  </si>
+  <si>
+    <t>Phố Tây Sơn, Phường Đống Đa</t>
+  </si>
+  <si>
+    <t>Phường Hoàng Cầu, Phường Đống Đa</t>
+  </si>
+  <si>
+    <t>Phường Thái Thịnh, Phường Đống Đa</t>
+  </si>
+  <si>
+    <t>Phố Yên Hòa, Phường Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Phố Giảng Võ, Phường Ba Đình</t>
+  </si>
+  <si>
+    <t>Phố Quan Hoa, Phường Cầu Giấy</t>
+  </si>
 </sst>
 </file>
 
@@ -344,21 +344,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,47 +366,47 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -414,7 +414,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -422,7 +422,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -430,7 +430,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -763,34 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="12" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,7 +782,34 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
@@ -1146,389 +1146,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976798DD-83B6-4FDC-8D52-81B009A0A056}">
   <dimension ref="A1:AM188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.25" customWidth="1"/>
-    <col min="34" max="34" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.21875" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="D11" s="8">
         <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="8">
         <v>80</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8">
         <v>100</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="8">
         <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8">
         <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8">
         <v>90</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D17" s="8">
         <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8">
         <v>65</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8">
         <v>90</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -1546,9 +1546,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4">
         <v>9</v>
@@ -1566,9 +1566,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="4">
         <v>5</v>
@@ -1586,9 +1586,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -1606,9 +1606,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="4">
         <v>3</v>
@@ -1626,37 +1626,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -1675,9 +1675,9 @@
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4">
         <v>9</v>
@@ -1696,9 +1696,9 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
@@ -1718,9 +1718,9 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="4">
         <v>3</v>
@@ -1740,9 +1740,9 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="4">
         <v>3</v>
@@ -1762,9 +1762,9 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B36" s="5">
         <f>SUM(B31:B35)</f>
@@ -1789,41 +1789,41 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6">
         <f>(B31/B36)</f>
@@ -1850,9 +1850,9 @@
         <v>4.1386090666325266E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="6">
         <f>(B32/B36)</f>
@@ -1879,9 +1879,9 @@
         <v>0.51353794353060245</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6">
         <f>(B33/B36)</f>
@@ -1908,9 +1908,9 @@
         <v>0.25046620167886136</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="6">
         <f>(B34/B36)</f>
@@ -1937,9 +1937,9 @@
         <v>0.12246039123558297</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="6">
         <f>(B35/B36)</f>
@@ -1966,46 +1966,46 @@
         <v>7.2149372888628049E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B48" s="6">
         <f>(B31*B53)</f>
@@ -2040,9 +2040,9 @@
         <v>5.1565398046614703</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="6">
         <f>(B32*B53)</f>
@@ -2077,9 +2077,9 @@
         <v>5.3642753484256707</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="6">
         <f>(B33*B53)</f>
@@ -2114,9 +2114,9 @@
         <v>5.4167149043530198</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="6">
         <f>(B34*B53)</f>
@@ -2151,9 +2151,9 @@
         <v>5.3018212497010433</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="6">
         <f>(B35*B53)</f>
@@ -2188,9 +2188,9 @@
         <v>4.9977368417790613</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B53" s="6">
         <f>G40</f>
@@ -2213,9 +2213,9 @@
         <v>7.2149372888628049E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B55" s="8">
         <f>SUM(I48:I52)/5</f>
@@ -2223,15 +2223,15 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="6">
         <f>H49</f>
@@ -2241,16 +2241,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B57" s="8">
         <f>(B55-5)/4</f>
         <v>6.1854407446013449E-2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E57" s="6">
         <f>H50</f>
@@ -2260,9 +2260,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="6">
         <f>H51</f>
@@ -2272,16 +2272,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B59" s="8">
         <f>(B57/1.12)</f>
         <v>5.5227149505369146E-2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E59" s="6">
         <f>H52</f>
@@ -2291,9 +2291,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="D60" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E60" s="6">
         <f>H48</f>
@@ -2303,120 +2303,120 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L63" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q63" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="R63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S63" s="2" t="s">
+      <c r="U63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="V63" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X63" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC63" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AD63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE63" s="2" t="s">
+      <c r="AG63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG63" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AH63" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI63" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJ63" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="48">
         <v>1</v>
       </c>
       <c r="C64" s="4">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="K64" s="16"/>
       <c r="L64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M64" s="6">
         <f>(B64/B73)</f>
@@ -2488,7 +2488,7 @@
         <v>0.2400757715435782</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y64" s="6">
         <f>M73*B64</f>
@@ -2539,21 +2539,21 @@
         <v>9.6414348496822768</v>
       </c>
       <c r="AL64" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AM64" s="33">
         <f>SUM(AJ64:AJ72)/9</f>
         <v>9.4572368500316557</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C65" s="64">
+      <c r="C65" s="48">
         <v>1</v>
       </c>
       <c r="D65" s="4">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="K65" s="16"/>
       <c r="L65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M65" s="6">
         <f>(B65/B73)</f>
@@ -2622,7 +2622,7 @@
         <v>0.13691495489511632</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y65" s="6">
         <f>B65*M73</f>
@@ -2673,16 +2673,16 @@
         <v>9.5828511419730873</v>
       </c>
       <c r="AL65" s="34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AM65" s="35">
         <f>(AM64-9)/8</f>
         <v>5.7154606253956963E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B66" s="4">
         <v>0.25</v>
@@ -2690,7 +2690,7 @@
       <c r="C66" s="4">
         <v>0.5</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="48">
         <v>1</v>
       </c>
       <c r="E66" s="4">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="K66" s="16"/>
       <c r="L66" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M66" s="6">
         <f>(B66/B73)</f>
@@ -2756,7 +2756,7 @@
         <v>8.1757952868156292E-2</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y66" s="6">
         <f>B66*M73</f>
@@ -2807,16 +2807,16 @@
         <v>9.5960341182271733</v>
       </c>
       <c r="AL66" s="36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM66" s="37">
         <f>AM65/1.45</f>
         <v>3.9416969830315146E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B67" s="4">
         <v>0.2</v>
@@ -2827,7 +2827,7 @@
       <c r="D67" s="4">
         <v>0.5</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="48">
         <v>1</v>
       </c>
       <c r="F67" s="4">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M67" s="6">
         <f>(B67/B73)</f>
@@ -2890,7 +2890,7 @@
         <v>6.8111609777511545E-2</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y67" s="6">
         <f>B67*M73</f>
@@ -2941,9 +2941,9 @@
         <v>9.2903924414218437</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B68" s="4">
         <v>0.33333333333333331</v>
@@ -2957,7 +2957,7 @@
       <c r="E68" s="4">
         <v>0.5</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="48">
         <v>1</v>
       </c>
       <c r="G68" s="4">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="K68" s="16"/>
       <c r="L68" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M68" s="6">
         <f>(B68/B73)</f>
@@ -3017,7 +3017,7 @@
         <v>6.489774591951103E-2</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y68" s="6">
         <f>B68*M73</f>
@@ -3068,9 +3068,9 @@
         <v>9.1931433670227207</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B69" s="4">
         <v>0.25</v>
@@ -3087,7 +3087,7 @@
       <c r="F69" s="4">
         <v>0.5</v>
       </c>
-      <c r="G69" s="64">
+      <c r="G69" s="48">
         <v>1</v>
       </c>
       <c r="H69" s="4">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M69" s="6">
         <f>(B69/B73)</f>
@@ -3144,7 +3144,7 @@
         <v>5.3170304915754238E-2</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y69" s="6">
         <f>B69*M73</f>
@@ -3195,9 +3195,9 @@
         <v>9.2342669661537311</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B70" s="4">
         <v>0.25</v>
@@ -3217,7 +3217,7 @@
       <c r="G70" s="4">
         <v>0.5</v>
       </c>
-      <c r="H70" s="64">
+      <c r="H70" s="48">
         <v>1</v>
       </c>
       <c r="I70" s="4">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="K70" s="16"/>
       <c r="L70" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M70" s="6">
         <f>(B70/B73)</f>
@@ -3271,7 +3271,7 @@
         <v>3.8255549714016901E-2</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y70" s="6">
         <f>B70*M73</f>
@@ -3322,9 +3322,9 @@
         <v>9.2968127112827474</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
@@ -3347,7 +3347,7 @@
       <c r="H71" s="4">
         <v>4</v>
       </c>
-      <c r="I71" s="64">
+      <c r="I71" s="48">
         <v>1</v>
       </c>
       <c r="J71" s="4">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="K71" s="16"/>
       <c r="L71" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M71" s="6">
         <f>(B71/B73)</f>
@@ -3398,7 +3398,7 @@
         <v>0.19776446327482314</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Y71" s="6">
         <f>B71*M73</f>
@@ -3449,9 +3449,9 @@
         <v>9.6373064765529559</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B72" s="4">
         <v>0.5</v>
@@ -3477,12 +3477,12 @@
       <c r="I72" s="4">
         <v>0.5</v>
       </c>
-      <c r="J72" s="64">
+      <c r="J72" s="48">
         <v>1</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M72" s="6">
         <f>(B72/B73)</f>
@@ -3525,7 +3525,7 @@
         <v>0.11905164709153228</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Y72" s="6">
         <f>B72*M73</f>
@@ -3576,9 +3576,9 @@
         <v>9.6428895779683756</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B73" s="25">
         <f>SUM(B64:B72)</f>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="24" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M73" s="25">
         <f>V64</f>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="V73" s="8"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3679,7 +3679,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3700,115 +3700,115 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L77" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="R77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="U77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="V77" s="22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X77" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC77" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AD77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE77" s="2" t="s">
+      <c r="AG77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AH77" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI77" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJ77" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="64">
+        <v>6</v>
+      </c>
+      <c r="B78" s="48">
         <v>1</v>
       </c>
       <c r="C78" s="4">
@@ -3836,7 +3836,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M78" s="6">
         <f>B78/B87</f>
@@ -3879,7 +3879,7 @@
         <v>4.0116865855238583E-2</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y78" s="6">
         <f>B78*M87</f>
@@ -3930,21 +3930,21 @@
         <v>9.7154882613180256</v>
       </c>
       <c r="AL78" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AM78" s="32">
         <f>SUM(AJ78:AJ86)/9</f>
         <v>9.7903398599831206</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" s="4">
         <v>3</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="48">
         <v>1</v>
       </c>
       <c r="D79" s="4">
@@ -3969,7 +3969,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M79" s="6">
         <f>B79/B87</f>
@@ -4012,7 +4012,7 @@
         <v>5.3830775090598811E-2</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y79" s="6">
         <f>B79*M87</f>
@@ -4063,16 +4063,16 @@
         <v>9.6285997167202719</v>
       </c>
       <c r="AL79" s="34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AM79" s="34">
         <f>(AM78-9)/8</f>
         <v>9.8792482497890077E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B80" s="4">
         <v>5</v>
@@ -4080,7 +4080,7 @@
       <c r="C80" s="4">
         <v>3</v>
       </c>
-      <c r="D80" s="64">
+      <c r="D80" s="48">
         <v>1</v>
       </c>
       <c r="E80" s="4">
@@ -4102,7 +4102,7 @@
         <v>0.5</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M80" s="6">
         <f>B80/B87</f>
@@ -4145,7 +4145,7 @@
         <v>9.3293485398917492E-2</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y80" s="6">
         <f>B80*M87</f>
@@ -4196,16 +4196,16 @@
         <v>9.6884121439289768</v>
       </c>
       <c r="AL80" s="36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM80" s="36">
         <f>AM79/1.45</f>
         <v>6.8132746550269019E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B81" s="4">
         <v>2</v>
@@ -4216,7 +4216,7 @@
       <c r="D81" s="4">
         <v>1.5</v>
       </c>
-      <c r="E81" s="64">
+      <c r="E81" s="48">
         <v>1</v>
       </c>
       <c r="F81" s="4">
@@ -4235,7 +4235,7 @@
         <v>0.5</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M81" s="6">
         <f>B81/B87</f>
@@ -4278,7 +4278,7 @@
         <v>8.197243533518378E-2</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y81" s="6">
         <f>B81*M87</f>
@@ -4329,9 +4329,9 @@
         <v>9.803969453354334</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B82" s="4">
         <v>3</v>
@@ -4345,7 +4345,7 @@
       <c r="E82" s="4">
         <v>2</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F82" s="48">
         <v>1</v>
       </c>
       <c r="G82" s="4">
@@ -4361,7 +4361,7 @@
         <v>0.5</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M82" s="6">
         <f>B82/B87</f>
@@ -4404,7 +4404,7 @@
         <v>0.11091088573306149</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y82" s="6">
         <f>B82*M87</f>
@@ -4455,9 +4455,9 @@
         <v>9.7526722173473548</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B83" s="4">
         <v>3</v>
@@ -4474,7 +4474,7 @@
       <c r="F83" s="4">
         <v>2</v>
       </c>
-      <c r="G83" s="64">
+      <c r="G83" s="48">
         <v>1</v>
       </c>
       <c r="H83" s="4">
@@ -4487,7 +4487,7 @@
         <v>0.5</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M83" s="6">
         <f>B83/B87</f>
@@ -4530,7 +4530,7 @@
         <v>0.12825010389195177</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y83" s="6">
         <f>B83*M87</f>
@@ -4581,9 +4581,9 @@
         <v>9.7989273570336444</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
@@ -4603,7 +4603,7 @@
       <c r="G84" s="4">
         <v>2</v>
       </c>
-      <c r="H84" s="64">
+      <c r="H84" s="48">
         <v>1</v>
       </c>
       <c r="I84" s="4">
@@ -4613,7 +4613,7 @@
         <v>0.5</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M84" s="6">
         <f>B84/B87</f>
@@ -4656,7 +4656,7 @@
         <v>0.14882255469696071</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y84" s="6">
         <f>B84*M87</f>
@@ -4707,9 +4707,9 @@
         <v>9.8061401766777312</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B85" s="4">
         <v>2</v>
@@ -4732,14 +4732,14 @@
       <c r="H85" s="4">
         <v>1.5</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="48">
         <v>1</v>
       </c>
       <c r="J85" s="4">
         <v>3</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M85" s="6">
         <f>B85/B87</f>
@@ -4782,7 +4782,7 @@
         <v>0.1707245253476383</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Y85" s="6">
         <f>B85*M87</f>
@@ -4833,9 +4833,9 @@
         <v>10.07312281157596</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B86" s="4">
         <v>3</v>
@@ -4861,11 +4861,11 @@
       <c r="I86" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J86" s="64">
+      <c r="J86" s="48">
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M86" s="6">
         <f>B86/B87</f>
@@ -4908,7 +4908,7 @@
         <v>0.17207836865044912</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Y86" s="6">
         <f>B86*M87</f>
@@ -4959,9 +4959,9 @@
         <v>9.8457266018917995</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B87" s="25">
         <f>SUM(B78:B86)</f>
@@ -5000,7 +5000,7 @@
         <v>7.1666666666666661</v>
       </c>
       <c r="L87" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M87" s="25">
         <f>V78</f>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="V87" s="8"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5061,7 +5061,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5082,115 +5082,115 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L91" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q91" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="R91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T91" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S91" s="2" t="s">
+      <c r="U91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="V91" s="22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA91" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC91" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AD91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF91" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE91" s="2" t="s">
+      <c r="AG91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG91" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AH91" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI91" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJ91" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="64">
+        <v>6</v>
+      </c>
+      <c r="B92" s="48">
         <v>1</v>
       </c>
       <c r="C92" s="4">
@@ -5218,7 +5218,7 @@
         <v>2</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M92" s="6">
         <f>B92/B101</f>
@@ -5261,7 +5261,7 @@
         <v>0.22992673300384986</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y92" s="6">
         <f>B92*M101</f>
@@ -5312,21 +5312,21 @@
         <v>9.249795252816206</v>
       </c>
       <c r="AL92" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AM92" s="32">
         <f>SUM(AJ92:AJ100)/9</f>
         <v>9.1024975095401111</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="48">
         <v>1</v>
       </c>
       <c r="D93" s="4">
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M93" s="6">
         <f>B93/B101</f>
@@ -5394,7 +5394,7 @@
         <v>0.12445906736490092</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y93" s="6">
         <f>B93*M101</f>
@@ -5445,16 +5445,16 @@
         <v>9.2062730829619746</v>
       </c>
       <c r="AL93" s="34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AM93" s="34">
         <f>(AM92-9)/8</f>
         <v>1.2812188692513882E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B94" s="4">
         <v>0.33333333333333331</v>
@@ -5462,7 +5462,7 @@
       <c r="C94" s="4">
         <v>0.5</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="48">
         <v>1</v>
       </c>
       <c r="E94" s="4">
@@ -5484,7 +5484,7 @@
         <v>0.5</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M94" s="6">
         <f>B94/B101</f>
@@ -5527,7 +5527,7 @@
         <v>5.2791937023326886E-2</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y94" s="6">
         <f>B94*M101</f>
@@ -5578,16 +5578,16 @@
         <v>9.1329160524128632</v>
       </c>
       <c r="AL94" s="36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM94" s="36">
         <f>AM93/1.45</f>
         <v>8.8359922017337122E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B95" s="4">
         <v>0.5</v>
@@ -5598,7 +5598,7 @@
       <c r="D95" s="4">
         <v>2</v>
       </c>
-      <c r="E95" s="64">
+      <c r="E95" s="48">
         <v>1</v>
       </c>
       <c r="F95" s="4">
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M95" s="6">
         <f>B95/B101</f>
@@ -5660,7 +5660,7 @@
         <v>0.12890351180934537</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y95" s="6">
         <f>B95*M101</f>
@@ -5711,9 +5711,9 @@
         <v>9.1861367262881579</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B96" s="4">
         <v>0.33333333333333331</v>
@@ -5727,7 +5727,7 @@
       <c r="E96" s="4">
         <v>0.5</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="48">
         <v>1</v>
       </c>
       <c r="G96" s="4">
@@ -5743,7 +5743,7 @@
         <v>0.5</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M96" s="6">
         <f>B96/B101</f>
@@ -5786,7 +5786,7 @@
         <v>5.2933780994958109E-2</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y96" s="6">
         <f>B96*M101</f>
@@ -5837,9 +5837,9 @@
         <v>9.0881223656766377</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B97" s="4">
         <v>0.5</v>
@@ -5856,7 +5856,7 @@
       <c r="F97" s="4">
         <v>3</v>
       </c>
-      <c r="G97" s="64">
+      <c r="G97" s="48">
         <v>1</v>
       </c>
       <c r="H97" s="4">
@@ -5869,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M97" s="6">
         <f>B97/B101</f>
@@ -5912,7 +5912,7 @@
         <v>0.16210025465147826</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y97" s="6">
         <f>B97*M101</f>
@@ -5963,9 +5963,9 @@
         <v>9.0801210578392908</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B98" s="4">
         <v>0.33333333333333331</v>
@@ -5985,7 +5985,7 @@
       <c r="G98" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H98" s="64">
+      <c r="H98" s="48">
         <v>1</v>
       </c>
       <c r="I98" s="4">
@@ -5995,7 +5995,7 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M98" s="6">
         <f>B98/B101</f>
@@ -6038,7 +6038,7 @@
         <v>5.9671369647440367E-2</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y98" s="6">
         <f>B98*M101</f>
@@ -6089,9 +6089,9 @@
         <v>9.0035314112261204</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B99" s="4">
         <v>0.33333333333333331</v>
@@ -6114,14 +6114,14 @@
       <c r="H99" s="4">
         <v>1.5</v>
       </c>
-      <c r="I99" s="64">
+      <c r="I99" s="48">
         <v>1</v>
       </c>
       <c r="J99" s="4">
         <v>0.5</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M99" s="6">
         <f>B99/B101</f>
@@ -6164,7 +6164,7 @@
         <v>6.6845781407773211E-2</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Y99" s="6">
         <f>B99*M101</f>
@@ -6215,9 +6215,9 @@
         <v>8.8450615448401102</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B100" s="4">
         <v>0.5</v>
@@ -6243,11 +6243,11 @@
       <c r="I100" s="4">
         <v>2</v>
       </c>
-      <c r="J100" s="64">
+      <c r="J100" s="48">
         <v>1</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M100" s="6">
         <f>B100/B101</f>
@@ -6290,7 +6290,7 @@
         <v>0.12236756409692706</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Y100" s="6">
         <f>B100*M101</f>
@@ -6341,9 +6341,9 @@
         <v>9.1305200917996459</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B101" s="25">
         <f>SUM(B92:B100)</f>
@@ -6382,7 +6382,7 @@
         <v>9</v>
       </c>
       <c r="L101" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M101" s="25">
         <f>V92</f>
@@ -6421,7 +6421,7 @@
         <v>0.12236756409692706</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6432,7 +6432,7 @@
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6443,115 +6443,115 @@
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L105" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q105" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="R105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T105" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S105" s="2" t="s">
+      <c r="U105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="V105" s="22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X105" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA105" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC105" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC105" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AD105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF105" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE105" s="2" t="s">
+      <c r="AG105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG105" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AH105" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI105" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJ105" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="64">
+        <v>6</v>
+      </c>
+      <c r="B106" s="48">
         <v>1</v>
       </c>
       <c r="C106" s="4">
@@ -6579,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M106" s="6">
         <f>B106/B115</f>
@@ -6622,7 +6622,7 @@
         <v>0.17106934933021892</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y106" s="6">
         <f>B106*M115</f>
@@ -6673,21 +6673,21 @@
         <v>9.4321010002792924</v>
       </c>
       <c r="AL106" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AM106" s="32">
         <f>SUM(AJ106:AJ114)/9</f>
         <v>9.1920554410121937</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
       </c>
-      <c r="C107" s="64">
+      <c r="C107" s="48">
         <v>1</v>
       </c>
       <c r="D107" s="4">
@@ -6712,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M107" s="6">
         <f>B107/B115</f>
@@ -6755,7 +6755,7 @@
         <v>0.17106934933021892</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y107" s="6">
         <f>B107*M115</f>
@@ -6806,16 +6806,16 @@
         <v>9.4321010002792924</v>
       </c>
       <c r="AL107" s="34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AM107" s="34">
         <f>(AM106-9)/8</f>
         <v>2.4006930126524217E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B108" s="4">
         <v>0.33333333333333331</v>
@@ -6823,7 +6823,7 @@
       <c r="C108" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="48">
         <v>1</v>
       </c>
       <c r="E108" s="4">
@@ -6845,7 +6845,7 @@
         <v>2</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M108" s="6">
         <f>B108/B115</f>
@@ -6888,7 +6888,7 @@
         <v>0.11708959317654971</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y108" s="6">
         <f>B108*M115</f>
@@ -6939,16 +6939,16 @@
         <v>9.1431522048507468</v>
       </c>
       <c r="AL108" s="36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM108" s="36">
         <f>AM107/1.45</f>
         <v>1.6556503535533944E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B109" s="4">
         <v>0.5</v>
@@ -6959,7 +6959,7 @@
       <c r="D109" s="4">
         <v>0.5</v>
       </c>
-      <c r="E109" s="64">
+      <c r="E109" s="48">
         <v>1</v>
       </c>
       <c r="F109" s="4">
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M109" s="6">
         <f>B109/B115</f>
@@ -7021,7 +7021,7 @@
         <v>7.5872838916317187E-2</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y109" s="6">
         <f>B109*M115</f>
@@ -7072,9 +7072,9 @@
         <v>9.0899735286229042</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B110" s="4">
         <v>0.5</v>
@@ -7088,7 +7088,7 @@
       <c r="E110" s="4">
         <v>1</v>
       </c>
-      <c r="F110" s="64">
+      <c r="F110" s="48">
         <v>1</v>
       </c>
       <c r="G110" s="4">
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M110" s="6">
         <f>B110/B115</f>
@@ -7147,7 +7147,7 @@
         <v>7.5872838916317187E-2</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y110" s="6">
         <f>B110*M115</f>
@@ -7198,9 +7198,9 @@
         <v>9.0899735286229042</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B111" s="4">
         <v>0.5</v>
@@ -7217,7 +7217,7 @@
       <c r="F111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="64">
+      <c r="G111" s="48">
         <v>1</v>
       </c>
       <c r="H111" s="4">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M111" s="6">
         <f>B111/B115</f>
@@ -7273,7 +7273,7 @@
         <v>7.5872838916317187E-2</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y111" s="6">
         <f>B111*M115</f>
@@ -7324,9 +7324,9 @@
         <v>9.0899735286229042</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B112" s="4">
         <v>0.5</v>
@@ -7346,7 +7346,7 @@
       <c r="G112" s="4">
         <v>1</v>
       </c>
-      <c r="H112" s="64">
+      <c r="H112" s="48">
         <v>1</v>
       </c>
       <c r="I112" s="4">
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M112" s="6">
         <f>B112/B115</f>
@@ -7399,7 +7399,7 @@
         <v>7.5872838916317187E-2</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y112" s="6">
         <f>B112*M115</f>
@@ -7450,9 +7450,9 @@
         <v>9.0899735286229042</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B113" s="4">
         <v>1</v>
@@ -7475,14 +7475,14 @@
       <c r="H113" s="4">
         <v>2</v>
       </c>
-      <c r="I113" s="64">
+      <c r="I113" s="48">
         <v>1</v>
       </c>
       <c r="J113" s="4">
         <v>2</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M113" s="6">
         <f>B113/B115</f>
@@ -7525,7 +7525,7 @@
         <v>0.16140751358142666</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Y113" s="6">
         <f>B113*M115</f>
@@ -7576,9 +7576,9 @@
         <v>9.2712771205858804</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B114" s="4">
         <v>0.5</v>
@@ -7604,11 +7604,11 @@
       <c r="I114" s="4">
         <v>0.5</v>
       </c>
-      <c r="J114" s="64">
+      <c r="J114" s="48">
         <v>1</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M114" s="6">
         <f>B114/B115</f>
@@ -7651,7 +7651,7 @@
         <v>7.5872838916317187E-2</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Y114" s="6">
         <f>B114*M115</f>
@@ -7702,9 +7702,9 @@
         <v>9.0899735286229042</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B115" s="25">
         <f>SUM(B106:B114)</f>
@@ -7743,7 +7743,7 @@
         <v>13</v>
       </c>
       <c r="L115" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M115" s="25">
         <f>V106</f>
@@ -7782,7 +7782,7 @@
         <v>7.5872838916317187E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -7802,115 +7802,115 @@
       <c r="T116" s="17"/>
       <c r="U116" s="17"/>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="L118" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L118" s="21" t="s">
-        <v>49</v>
-      </c>
       <c r="M118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q118" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="R118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S118" s="2" t="s">
+      <c r="U118" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T118" s="2" t="s">
+      <c r="V118" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="X118" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="U118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V118" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="X118" s="21" t="s">
-        <v>49</v>
-      </c>
       <c r="Y118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z118" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA118" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC118" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AD118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE118" s="2" t="s">
+      <c r="AG118" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF118" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG118" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AH118" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI118" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJ118" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="64">
+        <v>6</v>
+      </c>
+      <c r="B119" s="48">
         <v>1</v>
       </c>
       <c r="C119" s="4">
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M119" s="6">
         <f>B119/B128</f>
@@ -7981,7 +7981,7 @@
         <v>0.16463046897829509</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y119" s="6">
         <f>B119*M128</f>
@@ -8032,21 +8032,21 @@
         <v>9.1175270969447482</v>
       </c>
       <c r="AL119" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AM119" s="32">
         <f>SUM(AJ119:AJ127)/9</f>
         <v>9.0982012101623297</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B120" s="4">
         <v>0.5</v>
       </c>
-      <c r="C120" s="64">
+      <c r="C120" s="48">
         <v>1</v>
       </c>
       <c r="D120" s="4">
@@ -8071,7 +8071,7 @@
         <v>0.5</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M120" s="6">
         <f>B120/B128</f>
@@ -8114,7 +8114,7 @@
         <v>9.0966743140656184E-2</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y120" s="6">
         <f>B120*M128</f>
@@ -8165,16 +8165,16 @@
         <v>9.1273323764609398</v>
       </c>
       <c r="AL120" s="34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AM120" s="34">
         <f>(AM119-9)/8</f>
         <v>1.2275151270291218E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B121" s="4">
         <v>0.5</v>
@@ -8182,7 +8182,7 @@
       <c r="C121" s="4">
         <v>1</v>
       </c>
-      <c r="D121" s="64">
+      <c r="D121" s="48">
         <v>1</v>
       </c>
       <c r="E121" s="4">
@@ -8204,7 +8204,7 @@
         <v>0.5</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M121" s="6">
         <f>B121/B128</f>
@@ -8247,7 +8247,7 @@
         <v>9.0966743140656184E-2</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y121" s="6">
         <f>B121*M128</f>
@@ -8298,16 +8298,16 @@
         <v>9.1273323764609398</v>
       </c>
       <c r="AL121" s="36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM121" s="36">
         <f>AM120/1.45</f>
         <v>8.4656215657180813E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B122" s="4">
         <v>0.33333333333333331</v>
@@ -8318,7 +8318,7 @@
       <c r="D122" s="4">
         <v>0.5</v>
       </c>
-      <c r="E122" s="64">
+      <c r="E122" s="48">
         <v>1</v>
       </c>
       <c r="F122" s="4">
@@ -8337,7 +8337,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M122" s="6">
         <f>B122/B128</f>
@@ -8380,7 +8380,7 @@
         <v>4.5650205070494922E-2</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y122" s="6">
         <f>B122*M128</f>
@@ -8431,9 +8431,9 @@
         <v>9.0486221455486469</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B123" s="4">
         <v>0.33333333333333331</v>
@@ -8447,7 +8447,7 @@
       <c r="E123" s="4">
         <v>2</v>
       </c>
-      <c r="F123" s="64">
+      <c r="F123" s="48">
         <v>1</v>
       </c>
       <c r="G123" s="4">
@@ -8463,7 +8463,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M123" s="6">
         <f>B123/B128</f>
@@ -8506,7 +8506,7 @@
         <v>5.6947216367506229E-2</v>
       </c>
       <c r="X123" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y123" s="6">
         <f>B123*M128</f>
@@ -8557,9 +8557,9 @@
         <v>9.0552078026057199</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B124" s="4">
         <v>0.33333333333333331</v>
@@ -8576,7 +8576,7 @@
       <c r="F124" s="4">
         <v>1</v>
       </c>
-      <c r="G124" s="64">
+      <c r="G124" s="48">
         <v>1</v>
       </c>
       <c r="H124" s="4">
@@ -8589,7 +8589,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M124" s="6">
         <f>B124/B128</f>
@@ -8632,7 +8632,7 @@
         <v>5.6947216367506229E-2</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y124" s="6">
         <f>B124*M128</f>
@@ -8683,9 +8683,9 @@
         <v>9.0552078026057199</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B125" s="4">
         <v>1</v>
@@ -8705,7 +8705,7 @@
       <c r="G125" s="4">
         <v>3</v>
       </c>
-      <c r="H125" s="64">
+      <c r="H125" s="48">
         <v>1</v>
       </c>
       <c r="I125" s="4">
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M125" s="6">
         <f>B125/B128</f>
@@ -8758,7 +8758,7 @@
         <v>0.16463046897829509</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Y125" s="6">
         <f>B125*M128</f>
@@ -8809,9 +8809,9 @@
         <v>9.1175270969447482</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B126" s="4">
         <v>1</v>
@@ -8834,14 +8834,14 @@
       <c r="H126" s="4">
         <v>1</v>
       </c>
-      <c r="I126" s="64">
+      <c r="I126" s="48">
         <v>1</v>
       </c>
       <c r="J126" s="4">
         <v>1</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M126" s="6">
         <f>B126/B128</f>
@@ -8884,7 +8884,7 @@
         <v>0.16463046897829509</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Y126" s="6">
         <f>B126*M128</f>
@@ -8935,9 +8935,9 @@
         <v>9.1175270969447482</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B127" s="4">
         <v>1</v>
@@ -8963,11 +8963,11 @@
       <c r="I127" s="4">
         <v>1</v>
       </c>
-      <c r="J127" s="64">
+      <c r="J127" s="48">
         <v>1</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M127" s="6">
         <f>B127/B128</f>
@@ -9010,7 +9010,7 @@
         <v>0.16463046897829509</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Y127" s="6">
         <f>B127*M128</f>
@@ -9061,9 +9061,9 @@
         <v>9.1175270969447482</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B128" s="25">
         <f>SUM(B119:B127)</f>
@@ -9102,7 +9102,7 @@
         <v>6</v>
       </c>
       <c r="L128" s="27" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M128" s="28">
         <f>V119</f>
@@ -9141,77 +9141,77 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M131" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="N131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R131" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="S131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U131" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="V131" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K131" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M131" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q131" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U131" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V131" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="W131" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B132" s="6">
         <f>M64</f>
@@ -9254,7 +9254,7 @@
         <v>0.2400757715435782</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N132" s="6">
         <f>M78</f>
@@ -9297,9 +9297,9 @@
         <v>4.0116865855238583E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B133" s="6">
         <f t="shared" ref="B133:B140" si="132">M65</f>
@@ -9342,7 +9342,7 @@
         <v>0.13691495489511632</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N133" s="6">
         <f t="shared" ref="N133:W140" si="142">M79</f>
@@ -9385,9 +9385,9 @@
         <v>5.3830775090598811E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B134" s="6">
         <f t="shared" si="132"/>
@@ -9430,7 +9430,7 @@
         <v>8.1757952868156292E-2</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N134" s="6">
         <f t="shared" si="142"/>
@@ -9473,9 +9473,9 @@
         <v>9.3293485398917492E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B135" s="6">
         <f t="shared" si="132"/>
@@ -9518,7 +9518,7 @@
         <v>6.8111609777511545E-2</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N135" s="6">
         <f t="shared" si="142"/>
@@ -9561,9 +9561,9 @@
         <v>8.197243533518378E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B136" s="6">
         <f t="shared" si="132"/>
@@ -9606,7 +9606,7 @@
         <v>6.489774591951103E-2</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N136" s="6">
         <f t="shared" si="142"/>
@@ -9649,9 +9649,9 @@
         <v>0.11091088573306149</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B137" s="6">
         <f t="shared" si="132"/>
@@ -9694,7 +9694,7 @@
         <v>5.3170304915754238E-2</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N137" s="6">
         <f t="shared" si="142"/>
@@ -9737,9 +9737,9 @@
         <v>0.12825010389195177</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B138" s="6">
         <f t="shared" si="132"/>
@@ -9782,7 +9782,7 @@
         <v>3.8255549714016901E-2</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N138" s="6">
         <f t="shared" si="142"/>
@@ -9825,9 +9825,9 @@
         <v>0.14882255469696071</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B139" s="6">
         <f t="shared" si="132"/>
@@ -9870,7 +9870,7 @@
         <v>0.19776446327482314</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N139" s="6">
         <f t="shared" si="142"/>
@@ -9913,9 +9913,9 @@
         <v>0.1707245253476383</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B140" s="6">
         <f t="shared" si="132"/>
@@ -9958,7 +9958,7 @@
         <v>0.11905164709153228</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N140" s="6">
         <f t="shared" si="142"/>
@@ -10001,77 +10001,77 @@
         <v>0.17207836865044912</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="J143" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K143" s="40" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M143" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R143" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="S143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U143" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T143" s="2" t="s">
+      <c r="V143" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U143" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V143" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="W143" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B144" s="6">
         <f>M92</f>
@@ -10114,7 +10114,7 @@
         <v>0.22992673300384986</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N144" s="6">
         <f>M106</f>
@@ -10157,9 +10157,9 @@
         <v>0.17106934933021892</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B145" s="6">
         <f t="shared" ref="B145:B152" si="145">M93</f>
@@ -10202,7 +10202,7 @@
         <v>0.12445906736490092</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N145" s="6">
         <f t="shared" ref="N145:W152" si="146">M107</f>
@@ -10245,9 +10245,9 @@
         <v>0.17106934933021892</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B146" s="6">
         <f t="shared" si="145"/>
@@ -10290,7 +10290,7 @@
         <v>5.2791937023326886E-2</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N146" s="6">
         <f t="shared" si="146"/>
@@ -10333,9 +10333,9 @@
         <v>0.11708959317654971</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B147" s="6">
         <f t="shared" si="145"/>
@@ -10378,7 +10378,7 @@
         <v>0.12890351180934537</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N147" s="6">
         <f t="shared" si="146"/>
@@ -10421,9 +10421,9 @@
         <v>7.5872838916317187E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B148" s="6">
         <f t="shared" si="145"/>
@@ -10466,7 +10466,7 @@
         <v>5.2933780994958109E-2</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N148" s="6">
         <f t="shared" si="146"/>
@@ -10509,9 +10509,9 @@
         <v>7.5872838916317187E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B149" s="6">
         <f t="shared" si="145"/>
@@ -10554,7 +10554,7 @@
         <v>0.16210025465147826</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N149" s="6">
         <f t="shared" si="146"/>
@@ -10597,9 +10597,9 @@
         <v>7.5872838916317187E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B150" s="6">
         <f t="shared" si="145"/>
@@ -10642,7 +10642,7 @@
         <v>5.9671369647440367E-2</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N150" s="6">
         <f t="shared" si="146"/>
@@ -10685,9 +10685,9 @@
         <v>7.5872838916317187E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B151" s="6">
         <f t="shared" si="145"/>
@@ -10730,7 +10730,7 @@
         <v>6.6845781407773211E-2</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N151" s="6">
         <f t="shared" si="146"/>
@@ -10773,9 +10773,9 @@
         <v>0.16140751358142666</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B152" s="6">
         <f t="shared" si="145"/>
@@ -10818,7 +10818,7 @@
         <v>0.12236756409692706</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N152" s="6">
         <f t="shared" si="146"/>
@@ -10861,44 +10861,44 @@
         <v>7.5872838916317187E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F155" s="21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="L155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N155" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M155" s="2" t="s">
+      <c r="O155" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N155" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P155" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F156" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G156" s="6">
         <f>M119</f>
@@ -10941,9 +10941,9 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F157" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G157" s="6">
         <f t="shared" ref="G157:G164" si="148">M120</f>
@@ -10986,9 +10986,9 @@
         <v>9.0966743140656184E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F158" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G158" s="6">
         <f t="shared" si="148"/>
@@ -11031,9 +11031,9 @@
         <v>9.0966743140656184E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F159" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G159" s="6">
         <f t="shared" si="148"/>
@@ -11076,9 +11076,9 @@
         <v>4.5650205070494922E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F160" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G160" s="6">
         <f t="shared" si="148"/>
@@ -11121,9 +11121,9 @@
         <v>5.6947216367506229E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F161" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G161" s="6">
         <f t="shared" si="148"/>
@@ -11165,12 +11165,12 @@
         <f t="shared" si="147"/>
         <v>5.6947216367506229E-2</v>
       </c>
-      <c r="U161" s="48"/>
-      <c r="V161" s="48"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U161" s="58"/>
+      <c r="V161" s="58"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F162" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G162" s="6">
         <f t="shared" si="148"/>
@@ -11213,9 +11213,9 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F163" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G163" s="6">
         <f t="shared" si="148"/>
@@ -11258,9 +11258,9 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F164" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G164" s="6">
         <f t="shared" si="148"/>
@@ -11303,41 +11303,41 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N165" s="48"/>
-      <c r="O165" s="48"/>
-      <c r="P165" s="48"/>
-      <c r="Q165" s="48"/>
-      <c r="R165" s="48"/>
-      <c r="S165" s="48"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N165" s="58"/>
+      <c r="O165" s="58"/>
+      <c r="P165" s="58"/>
+      <c r="Q165" s="58"/>
+      <c r="R165" s="58"/>
+      <c r="S165" s="58"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="43" t="s">
+      <c r="D167" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="43" t="s">
-        <v>5</v>
-      </c>
       <c r="E167" s="43" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F167" s="44" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H167" s="45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I167" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B168" s="6">
         <f>K132</f>
@@ -11360,16 +11360,16 @@
         <v>0.16463046897829509</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" s="6">
         <f>E56</f>
         <v>0.51353794353060245</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B169" s="6">
         <f t="shared" ref="B169:B176" si="149">K133</f>
@@ -11392,16 +11392,16 @@
         <v>9.0966743140656184E-2</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169" s="6">
         <f t="shared" ref="I169:I172" si="154">E57</f>
         <v>0.25046620167886136</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B170" s="6">
         <f t="shared" si="149"/>
@@ -11424,16 +11424,16 @@
         <v>9.0966743140656184E-2</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I170" s="6">
         <f t="shared" si="154"/>
         <v>0.12246039123558297</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B171" s="6">
         <f t="shared" si="149"/>
@@ -11456,16 +11456,16 @@
         <v>4.5650205070494922E-2</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I171" s="6">
         <f t="shared" si="154"/>
         <v>7.2149372888628049E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B172" s="6">
         <f t="shared" si="149"/>
@@ -11488,16 +11488,16 @@
         <v>5.6947216367506229E-2</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I172" s="6">
         <f t="shared" si="154"/>
         <v>4.1386090666325266E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B173" s="6">
         <f t="shared" si="149"/>
@@ -11520,9 +11520,9 @@
         <v>5.6947216367506229E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B174" s="6">
         <f t="shared" si="149"/>
@@ -11545,9 +11545,9 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B175" s="6">
         <f t="shared" si="149"/>
@@ -11570,9 +11570,9 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B176" s="6">
         <f t="shared" si="149"/>
@@ -11595,17 +11595,17 @@
         <v>0.16463046897829509</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180" s="47">
         <f t="array" ref="B180:B188">MMULT(B168:F176,I168:I172)</f>
@@ -11613,72 +11613,72 @@
       </c>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B181" s="8">
         <v>0.11514242438199657</v>
       </c>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B182" s="8">
         <v>8.4030295773107111E-2</v>
       </c>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B183" s="8">
         <v>7.8658256297360757E-2</v>
       </c>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B184" s="8">
         <v>7.542017519076924E-2</v>
       </c>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B185" s="8">
         <v>8.7109146440948318E-2</v>
       </c>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B186" s="8">
         <v>7.6515664863117477E-2</v>
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B187" s="8">
         <v>0.17096510211446769</v>
       </c>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B188" s="8">
         <v>0.13151012244481186</v>
@@ -11690,11 +11690,6 @@
     <sortCondition descending="1" ref="D180:D188"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
     <mergeCell ref="N165:S165"/>
     <mergeCell ref="U161:V161"/>
     <mergeCell ref="A46:F46"/>
@@ -11704,6 +11699,11 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AHP/HHRQT_V2.xlsx
+++ b/AHP/HHRQT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\pjr\AHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195A73E-8C1D-4315-81D8-66B650DD2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E48817-5BFC-47C7-BD0F-3B479D18B784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE5068A2-DCFC-46A7-BC76-458F73BDD25C}"/>
+    <workbookView xWindow="22932" yWindow="-732" windowWidth="23256" windowHeight="12456" xr2:uid="{EE5068A2-DCFC-46A7-BC76-458F73BDD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,6 +764,34 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,34 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976798DD-83B6-4FDC-8D52-81B009A0A056}">
   <dimension ref="A1:AM188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,133 +1170,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
@@ -1499,14 +1499,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -1627,14 +1627,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -1790,15 +1790,15 @@
       <c r="J36" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
@@ -1967,14 +1967,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="51"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
@@ -11165,8 +11165,8 @@
         <f t="shared" si="147"/>
         <v>5.6947216367506229E-2</v>
       </c>
-      <c r="U161" s="58"/>
-      <c r="V161" s="58"/>
+      <c r="U161" s="49"/>
+      <c r="V161" s="49"/>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F162" s="2" t="s">
@@ -11304,12 +11304,12 @@
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="N165" s="58"/>
-      <c r="O165" s="58"/>
-      <c r="P165" s="58"/>
-      <c r="Q165" s="58"/>
-      <c r="R165" s="58"/>
-      <c r="S165" s="58"/>
+      <c r="N165" s="49"/>
+      <c r="O165" s="49"/>
+      <c r="P165" s="49"/>
+      <c r="Q165" s="49"/>
+      <c r="R165" s="49"/>
+      <c r="S165" s="49"/>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
@@ -11690,6 +11690,11 @@
     <sortCondition descending="1" ref="D180:D188"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
     <mergeCell ref="N165:S165"/>
     <mergeCell ref="U161:V161"/>
     <mergeCell ref="A46:F46"/>
@@ -11699,11 +11704,6 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
